--- a/压测图表.xlsx
+++ b/压测图表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30960" windowHeight="16620" activeTab="8"/>
+    <workbookView windowWidth="30960" windowHeight="16620" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,8 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1645,6 +1647,1526 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet10!$A$1:$G$18</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>hello</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>hello</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>compute</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>compute</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>listQuestionaire</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>listQuestionaire</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>hello</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>hello</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>compute</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>compute</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>listQuestionaire</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>listQuestionaire</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>hello</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>hello</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>compute</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>compute</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>listQuestionaire</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>listQuestionaire</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Node(pm2 4实例)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Node(pm2)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Node(pm2)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Node(pm2 4实例)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Node(pm2)</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Node(pm2)</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Node(pm2 4实例)</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Node(pm2)</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Node(pm2)</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>23</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$H$1:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1561.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2513.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3137.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3963.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1375.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1728.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3603.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3179.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1666.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2540.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1558.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1705.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1684.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2452.82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4045.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6526.49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1601.06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1669.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="480227923"/>
+        <c:axId val="700681656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="480227923"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700681656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="700681656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480227923"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="pct5">
+          <a:fgClr>
+            <a:schemeClr val="accent1"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.041478157911136"/>
+          <c:y val="0.024745269286754"/>
+          <c:w val="0.944812114413909"/>
+          <c:h val="0.646336729742843"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet11!$A$1:$G$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>5000Mi</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3500m</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>10000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>hello</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>hello</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>compute</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>compute</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>listQuestionaire</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>listQuestionaire</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>hello</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>hello</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>compute</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>compute</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>listQuestionaire</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>listQuestionaire</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Node(pm2 4实例)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Node(pm2)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Node(pm2)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Node(pm2 4实例)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Node(pm2)</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Node(pm2)</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>25</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet11!$H$1:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3504.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3968.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1358.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2230.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1413.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1655.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2930.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3929.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1607.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2094.14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1529.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1689.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="104112245"/>
+        <c:axId val="322470983"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="104112245"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="322470983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="322470983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104112245"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="pct5">
+          <a:fgClr>
+            <a:schemeClr val="accent1"/>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="bg1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -7030,6 +8552,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7853,6 +9455,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -11900,6 +14508,76 @@
       <xdr:xfrm>
         <a:off x="3246755" y="1790700"/>
         <a:ext cx="10304780" cy="6116955"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>567055</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>438785</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2517775" y="1380490"/>
+        <a:ext cx="12226290" cy="5988050"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>218440</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>125095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>173990</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2819400" y="1913255"/>
+        <a:ext cx="11169015" cy="5636895"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12933,6 +15611,822 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1">
+        <v>1561.58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>2513.87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>10000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>3137.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>10000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>3963.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>10000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>1375.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>10000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>1728.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>10000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>3603.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>10000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>3179.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>10000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>1666.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>10000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>2540.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>10000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>1558.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>10000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>1705.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>10000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>1684.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>10000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>2452.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>10000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>4045.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>10000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>6526.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>10000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>1601.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>10000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>1669.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1">
+        <v>3504.76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2000</v>
+      </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>3968.59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3">
+        <v>10000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>1358.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>10000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>2230.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>10000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>1413.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <v>10000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>1655.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+      <c r="E7">
+        <v>10000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>2930.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2000</v>
+      </c>
+      <c r="E8">
+        <v>10000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>3929.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+      <c r="E9">
+        <v>10000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>1607.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+      <c r="E10">
+        <v>10000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>2094.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>2000</v>
+      </c>
+      <c r="E11">
+        <v>10000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>1529.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>10000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>1689.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
@@ -15404,7 +18898,7 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
